--- a/web/src/main/resources/static/excel/certification-input.xlsx
+++ b/web/src/main/resources/static/excel/certification-input.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">ردیف</t>
   </si>
   <si>
-    <t xml:space="preserve">کدملی</t>
+    <t xml:space="preserve">کدملی (اجباری)</t>
   </si>
   <si>
     <t xml:space="preserve">شماره پرسنلی قدیم</t>
@@ -71,6 +71,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -91,6 +92,7 @@
       <sz val="10"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -185,23 +187,23 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="20.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="10.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="10.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
